--- a/Marketed_drugs.xlsx
+++ b/Marketed_drugs.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D95D178-DD48-4F38-A851-5D43D9047D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3961BA-0B08-4FCB-93D1-636AEAF2B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{DEFB5BCB-9C8F-490D-B9EC-798A1B6AB96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="443">
   <si>
     <t>Gene</t>
   </si>
@@ -142,9 +155,6 @@
     <t>DB14984</t>
   </si>
   <si>
-    <t>SMN</t>
-  </si>
-  <si>
     <t>Spinal Muscular Atrophy</t>
   </si>
   <si>
@@ -364,9 +374,6 @@
     <t>Abecma™</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
     <t>Idecabtagene vicleucel / autologous CAR T -cellsyu76h, CAR T cells recognize the B-cell maturation antigen (BCMA) and kill BCMA-expressing tumor cells. A lentiviral vector, developed by bluebird bio, is used to engineer the CAR T cells.</t>
   </si>
   <si>
@@ -1349,6 +1356,12 @@
   </si>
   <si>
     <t>Canada - cancelled post-market</t>
+  </si>
+  <si>
+    <t>Gene therapy</t>
+  </si>
+  <si>
+    <t>Cell therapy</t>
   </si>
 </sst>
 </file>
@@ -2357,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA10646-7FED-4C80-B98F-7EF187116B2C}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2435,7 +2448,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
@@ -2468,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
@@ -2501,7 +2514,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
@@ -2534,7 +2547,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="3" t="s">
@@ -2567,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="3" t="s">
@@ -2600,7 +2613,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="3" t="s">
@@ -2612,49 +2625,49 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
@@ -2664,28 +2677,28 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>15</v>
@@ -2694,33 +2707,33 @@
         <v>16</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -2729,31 +2742,31 @@
         <v>16</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
@@ -2765,28 +2778,28 @@
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>15</v>
@@ -2798,28 +2811,28 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>15</v>
@@ -2828,31 +2841,31 @@
         <v>16</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
@@ -2864,28 +2877,28 @@
         <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>15</v>
@@ -2897,26 +2910,26 @@
         <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>15</v>
@@ -2925,60 +2938,60 @@
         <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>15</v>
@@ -2987,29 +3000,29 @@
         <v>16</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>15</v>
@@ -3018,163 +3031,163 @@
         <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="3"/>
@@ -3183,240 +3196,240 @@
     <row r="26" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="K26" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="3"/>
@@ -3426,54 +3439,54 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="145" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -3484,205 +3497,207 @@
         <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>209</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>216</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -3690,19 +3705,19 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="3"/>
@@ -3713,19 +3728,19 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="3"/>
@@ -3736,19 +3751,19 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="3"/>
@@ -3759,19 +3774,19 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="3"/>
@@ -3780,116 +3795,116 @@
     <row r="47" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K47" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>264</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="3"/>
@@ -3899,179 +3914,179 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="G51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>274</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="E53" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="G56" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="3"/>
@@ -4080,19 +4095,19 @@
     <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="3"/>
@@ -4102,78 +4117,78 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="3"/>
@@ -4182,236 +4197,236 @@
     <row r="61" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>329</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>336</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>114</v>
+        <v>442</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="G64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H64" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="G65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="G66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="G67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="3"/>
@@ -4420,241 +4435,243 @@
     <row r="69" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="C71" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="87" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/Marketed_drugs.xlsx
+++ b/Marketed_drugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3961BA-0B08-4FCB-93D1-636AEAF2B17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF94D4-2D43-4E7A-9D9E-8D62FBDA29FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{DEFB5BCB-9C8F-490D-B9EC-798A1B6AB96C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFB5BCB-9C8F-490D-B9EC-798A1B6AB96C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="444">
   <si>
     <t>Gene</t>
   </si>
@@ -554,9 +554,6 @@
     <t>Casgevy</t>
   </si>
   <si>
-    <t>Cell/Gene</t>
-  </si>
-  <si>
     <t>CD34+ hematopoietic stem cells engineered with electroporation of CRISPR/Cas9 RNP complexes to decrease expression of BCL11A to increase fetal hemoglobin production. Treats patients with certain kinds of sickle cell disease.</t>
   </si>
   <si>
@@ -776,9 +773,6 @@
     <t>DB13896</t>
   </si>
   <si>
-    <t>AADC</t>
-  </si>
-  <si>
     <t>aromatic L‑amino acid decarboxylase (AADC) deficiency</t>
   </si>
   <si>
@@ -1362,6 +1356,15 @@
   </si>
   <si>
     <t>Cell therapy</t>
+  </si>
+  <si>
+    <t>Cell/Gene therapy</t>
+  </si>
+  <si>
+    <t>DDC</t>
+  </si>
+  <si>
+    <t>COL7A1</t>
   </si>
 </sst>
 </file>
@@ -2371,7 +2374,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2448,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="3" t="s">
@@ -2481,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
@@ -2514,7 +2517,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
@@ -2547,7 +2550,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="3" t="s">
@@ -2580,7 +2583,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="3" t="s">
@@ -2613,7 +2616,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="3" t="s">
@@ -2625,7 +2628,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>40</v>
@@ -2646,7 +2649,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="3" t="s">
@@ -2677,7 +2680,7 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="3" t="s">
@@ -2710,10 +2713,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>56</v>
@@ -2733,7 +2736,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>15</v>
@@ -2745,7 +2748,7 @@
         <v>59</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="3" t="s">
@@ -2778,7 +2781,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="3" t="s">
@@ -2811,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="3" t="s">
@@ -2844,7 +2847,7 @@
         <v>55</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="3" t="s">
@@ -2877,7 +2880,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="3" t="s">
@@ -2910,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="3" t="s">
@@ -2941,7 +2944,7 @@
         <v>55</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="3" t="s">
@@ -2972,7 +2975,7 @@
         <v>89</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="3" t="s">
@@ -3003,7 +3006,7 @@
         <v>94</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="3" t="s">
@@ -3034,7 +3037,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="3" t="s">
@@ -3053,7 +3056,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>15</v>
@@ -3065,7 +3068,7 @@
         <v>103</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="3" t="s">
@@ -3096,7 +3099,7 @@
         <v>103</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="3" t="s">
@@ -3118,7 +3121,7 @@
         <v>112</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>113</v>
@@ -3149,7 +3152,7 @@
         <v>119</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>120</v>
@@ -3178,7 +3181,7 @@
         <v>125</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>126</v>
@@ -3205,7 +3208,7 @@
         <v>131</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>132</v>
@@ -3238,7 +3241,7 @@
         <v>140</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>141</v>
@@ -3269,7 +3272,7 @@
         <v>147</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -3298,7 +3301,7 @@
         <v>153</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>154</v>
@@ -3329,7 +3332,7 @@
         <v>160</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>161</v>
@@ -3360,7 +3363,7 @@
         <v>166</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>167</v>
@@ -3391,45 +3394,45 @@
         <v>172</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="3"/>
@@ -3439,22 +3442,22 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="3"/>
@@ -3463,30 +3466,30 @@
     <row r="35" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -3497,80 +3500,80 @@
         <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="3"/>
@@ -3578,62 +3581,62 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -3641,63 +3644,63 @@
         <v>150</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -3705,19 +3708,19 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="3"/>
@@ -3728,19 +3731,19 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="3"/>
@@ -3751,19 +3754,19 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="3"/>
@@ -3774,19 +3777,19 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="3"/>
@@ -3795,116 +3798,118 @@
     <row r="47" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>245</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>439</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="3"/>
@@ -3914,179 +3919,179 @@
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>127</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="3" t="s">
         <v>104</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>441</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="E54" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="G54" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="E55" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="G55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="G56" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="3"/>
@@ -4095,19 +4100,19 @@
     <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="3"/>
@@ -4117,78 +4122,78 @@
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="E59" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="3"/>
@@ -4197,236 +4202,236 @@
     <row r="61" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="E61" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>334</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="E64" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>339</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="E65" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>133</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="G66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K66" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="E67" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="3" t="s">
         <v>83</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="3"/>
@@ -4435,174 +4440,176 @@
     <row r="69" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="E69" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="B72" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="G72" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>387</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="E73" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="G73" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>114</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="3" t="s">
@@ -4610,68 +4617,70 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="E75" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="G75" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="E76" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="G76" s="4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Marketed_drugs.xlsx
+++ b/Marketed_drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF94D4-2D43-4E7A-9D9E-8D62FBDA29FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C80671-F815-4BAA-AF04-87C9EC0EAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFB5BCB-9C8F-490D-B9EC-798A1B6AB96C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="451">
   <si>
     <t>Gene</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Mipomersen</t>
   </si>
   <si>
-    <t>Kynamro</t>
-  </si>
-  <si>
     <t>DB05528</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
     <t>Azficel-T</t>
   </si>
   <si>
-    <t>LAVIV</t>
-  </si>
-  <si>
     <t>Fibroblasts to improve the appearance of moderate to severe nasolabial fold wrinkles.</t>
   </si>
   <si>
@@ -1328,9 +1322,6 @@
     <t>Cambiogenplasmid</t>
   </si>
   <si>
-    <t xml:space="preserve"> HPC, Cord Blood</t>
-  </si>
-  <si>
     <t>Allogeneic Cultured Keratinocytes and Fibroblasts in Bovine Collagen</t>
   </si>
   <si>
@@ -1365,6 +1356,36 @@
   </si>
   <si>
     <t>COL7A1</t>
+  </si>
+  <si>
+    <t>HGNCID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>Kynamro (withdrawn)</t>
+  </si>
+  <si>
+    <t>APOB, LDLR, PCSK9</t>
+  </si>
+  <si>
+    <t>multiple enzyme deficiences</t>
+  </si>
+  <si>
+    <t>multiple genetic disorders</t>
+  </si>
+  <si>
+    <t>somatic cancer</t>
+  </si>
+  <si>
+    <t>mainly somatic cancer</t>
+  </si>
+  <si>
+    <t>F8, F9</t>
+  </si>
+  <si>
+    <t>LAVIV (withdrawn)</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1541,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1710,6 +1731,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1964,7 +1991,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1994,6 +2021,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2371,2316 +2401,2473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA10646-7FED-4C80-B98F-7EF187116B2C}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
-    <col min="2" max="2" width="38" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28" style="7" customWidth="1"/>
-    <col min="6" max="6" width="30.36328125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="38.08984375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="23.36328125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="21.54296875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="2" width="8.7265625" style="7"/>
+    <col min="3" max="3" width="38" style="7" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="28" style="7" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="38.08984375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="21.54296875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.453125" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="M1" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>341</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>341</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>2928</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="3" t="s">
+      <c r="J4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>2928</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2928</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>2928</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>11117</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="L8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>11179</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>12405</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>12405</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>12405</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>12405</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="L14" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>6677</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>6677</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>3551</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>4827</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <v>2928</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="3" t="s">
+      <c r="D36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3" t="s">
+      <c r="L36" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3" t="s">
+      <c r="L37" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <v>6677</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="3" t="s">
+      <c r="L40" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <v>3551</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="L41" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="4" t="s">
+      <c r="J46" s="6"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="H47" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <v>2719</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K47" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="6"/>
+      <c r="K48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K48" s="3" t="s">
+    </row>
+    <row r="49" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="M49" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="D50" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="J50" s="6"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="H51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="J51" s="6"/>
+      <c r="K51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="3" t="s">
+    </row>
+    <row r="52" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="K52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <v>713</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="K53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <v>10294</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <v>4827</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="L55" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F56" s="4" t="s">
+      <c r="J56" s="6"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H56" s="4" t="s">
+      <c r="D57" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="3"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="J57" s="6"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="I58" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J60" s="6"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
+        <v>3546</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J62" s="6"/>
+      <c r="K62" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J63" s="6"/>
+      <c r="K63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <v>186</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="K69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
+        <v>2701</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J71" s="6"/>
+      <c r="K71" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <v>2214</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="3" t="s">
+      <c r="C72" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J72" s="6"/>
+      <c r="K72" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="3" t="s">
+      <c r="L72" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="M73" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A75" s="7">
+        <v>11117</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
+        <v>4827</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="87" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="116" x14ac:dyDescent="0.35">
-      <c r="A76" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="L76" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Marketed_drugs.xlsx
+++ b/Marketed_drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\lab-j\DCRT\00_Members\Marlen\N1C\Gene Registry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C80671-F815-4BAA-AF04-87C9EC0EAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E8246D-6E91-45E3-A1CE-DD083F5B1AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEFB5BCB-9C8F-490D-B9EC-798A1B6AB96C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="450">
   <si>
     <t>Gene</t>
   </si>
@@ -662,9 +662,6 @@
     <t>Alipogene tiparvovec</t>
   </si>
   <si>
-    <t>Glybera</t>
-  </si>
-  <si>
     <t>In vivo AAV1</t>
   </si>
   <si>
@@ -1376,16 +1373,16 @@
     <t>multiple genetic disorders</t>
   </si>
   <si>
-    <t>somatic cancer</t>
-  </si>
-  <si>
-    <t>mainly somatic cancer</t>
-  </si>
-  <si>
     <t>F8, F9</t>
   </si>
   <si>
     <t>LAVIV (withdrawn)</t>
+  </si>
+  <si>
+    <t>not for rare disease</t>
+  </si>
+  <si>
+    <t>Glybera (withdrawn)</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2401,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2426,7 +2423,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2462,7 +2459,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2491,7 +2488,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="3" t="s">
@@ -2527,7 +2524,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3" t="s">
@@ -2563,7 +2560,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="3" t="s">
@@ -2599,7 +2596,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="3" t="s">
@@ -2635,7 +2632,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="3" t="s">
@@ -2671,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="3" t="s">
@@ -2686,7 +2683,7 @@
         <v>11117</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>40</v>
@@ -2707,7 +2704,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="3" t="s">
@@ -2741,7 +2738,7 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="3" t="s">
@@ -2777,10 +2774,10 @@
         <v>55</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>56</v>
@@ -2803,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>15</v>
@@ -2815,7 +2812,7 @@
         <v>59</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="3" t="s">
@@ -2851,7 +2848,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="3" t="s">
@@ -2887,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="3" t="s">
@@ -2899,7 +2896,7 @@
     </row>
     <row r="14" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>68</v>
@@ -2908,7 +2905,7 @@
         <v>69</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>15</v>
@@ -2920,10 +2917,10 @@
         <v>55</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>22</v>
@@ -2955,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="3" t="s">
@@ -2965,12 +2962,12 @@
         <v>74</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>75</v>
@@ -2991,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="3" t="s">
@@ -3001,7 +2998,7 @@
         <v>78</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -3030,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="3" t="s">
@@ -3040,7 +3037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
         <v>84</v>
@@ -3061,7 +3058,7 @@
         <v>88</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="3" t="s">
@@ -3100,7 +3097,7 @@
         <v>93</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="3" t="s">
@@ -3112,7 +3109,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>95</v>
@@ -3133,7 +3130,7 @@
         <v>98</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="3" t="s">
@@ -3152,7 +3149,7 @@
         <v>101</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>15</v>
@@ -3164,7 +3161,7 @@
         <v>102</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="3" t="s">
@@ -3172,6 +3169,9 @@
       </c>
       <c r="L21" s="3" t="s">
         <v>104</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -3195,7 +3195,7 @@
         <v>102</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="3" t="s">
@@ -3203,6 +3203,9 @@
       </c>
       <c r="L22" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="116" x14ac:dyDescent="0.35">
@@ -3217,7 +3220,7 @@
         <v>111</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>112</v>
@@ -3236,7 +3239,7 @@
         <v>115</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -3251,7 +3254,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>119</v>
@@ -3270,7 +3273,7 @@
         <v>122</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -3283,7 +3286,7 @@
         <v>124</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>125</v>
@@ -3297,6 +3300,9 @@
       <c r="J25" s="6"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
+      <c r="M25" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
@@ -3310,7 +3316,7 @@
         <v>130</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>131</v>
@@ -3329,6 +3335,9 @@
       </c>
       <c r="L26" s="3" t="s">
         <v>136</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="116" x14ac:dyDescent="0.35">
@@ -3343,7 +3352,7 @@
         <v>139</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>140</v>
@@ -3362,7 +3371,7 @@
         <v>143</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -3377,7 +3386,7 @@
         <v>146</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3392,7 +3401,7 @@
         <v>148</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
@@ -3412,7 +3421,7 @@
         <v>152</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>153</v>
@@ -3443,7 +3452,7 @@
         <v>159</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>160</v>
@@ -3462,7 +3471,7 @@
         <v>163</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
@@ -3477,7 +3486,7 @@
         <v>165</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>166</v>
@@ -3496,7 +3505,7 @@
         <v>168</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
@@ -3504,7 +3513,7 @@
         <v>4827</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>169</v>
@@ -3516,7 +3525,7 @@
         <v>171</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>172</v>
@@ -3539,13 +3548,13 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>177</v>
@@ -3559,18 +3568,21 @@
       <c r="J33" s="6"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
+      <c r="M33" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>179</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>180</v>
@@ -3584,6 +3596,9 @@
       <c r="J34" s="6"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
+      <c r="M34" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
@@ -3613,6 +3628,9 @@
       <c r="L35" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="M35" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
@@ -3631,7 +3649,7 @@
         <v>190</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>191</v>
@@ -3676,6 +3694,9 @@
       <c r="L37" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="M37" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
@@ -3683,13 +3704,13 @@
         <v>201</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>202</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>203</v>
@@ -3703,6 +3724,9 @@
       <c r="J38" s="6"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
+      <c r="M38" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
@@ -3718,37 +3742,37 @@
         <v>208</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>209</v>
+        <v>449</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="J39" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="F40" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>180</v>
@@ -3757,14 +3781,17 @@
         <v>126</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -3775,63 +3802,66 @@
         <v>149</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F42" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>132</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="3" t="s">
         <v>82</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -3839,10 +3869,10 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>180</v>
@@ -3851,21 +3881,24 @@
         <v>126</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
+      <c r="M43" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>180</v>
@@ -3874,21 +3907,24 @@
         <v>126</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
+      <c r="M44" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>180</v>
@@ -3897,21 +3933,24 @@
         <v>126</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
+      <c r="M45" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>180</v>
@@ -3920,44 +3959,47 @@
         <v>126</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
+      <c r="M46" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -3965,155 +4007,161 @@
         <v>2719</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="I49" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>126</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="3" t="s">
         <v>103</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
@@ -4121,35 +4169,35 @@
         <v>713</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -4157,35 +4205,35 @@
         <v>10294</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
@@ -4193,198 +4241,213 @@
         <v>4827</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="F56" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
+      <c r="M56" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
+      <c r="M57" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="F58" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="J58" s="6"/>
       <c r="K58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F59" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
+      <c r="M60" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G61" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>319</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -4392,60 +4455,63 @@
         <v>3546</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="F62" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="F63" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J63" s="6"/>
       <c r="K63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
@@ -4453,97 +4519,103 @@
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="F64" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J64" s="6"/>
       <c r="K64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="F65" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>342</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>132</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J65" s="6"/>
       <c r="K65" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="F66" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J66" s="6"/>
       <c r="K66" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -4551,120 +4623,123 @@
         <v>186</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F67" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="3" t="s">
         <v>82</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J68" s="6"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
+      <c r="M68" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="I69" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
@@ -4672,33 +4747,33 @@
         <v>2701</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="I71" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="3" t="s">
         <v>187</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="87" x14ac:dyDescent="0.35">
@@ -4706,132 +4781,135 @@
         <v>2214</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="J72" s="6"/>
       <c r="K72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="I73" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>395</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>113</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J74" s="6"/>
       <c r="K74" s="3" t="s">
         <v>103</v>
       </c>
       <c r="L74" s="3"/>
+      <c r="M74" s="7" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>11117</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="116" x14ac:dyDescent="0.35">
@@ -4839,35 +4917,35 @@
         <v>4827</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
